--- a/en/サンプルプロジェクト/設計書/B1_Customer_Management_System/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_(REST)_B10103_Customer_registration.xlsx
+++ b/en/サンプルプロジェクト/設計書/B1_Customer_Management_System/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_(REST)_B10103_Customer_registration.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{1F2B847D-61C9-4AC2-90F0-645475A6861C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A5D44E-FF0B-40F5-BCC4-3580EA651C47}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" tabRatio="445" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="445" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" state="hidden" r:id="rId1"/>
@@ -30,102 +30,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{EE98152E-CA74-475A-B7AB-47FD29A8873F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>TIS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Nablarchでの「取引」は「subfunction」としてください。
-他のセルも同様に修正をお願いします。
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{BD94183E-4165-4D16-828C-F69AAAB2FE42}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「精査」はTIS特有の表現のため、
-「scrutiny」ではなく
-「validate、validation」
-で統一していただけますでしょうか。
-他のセルも同様に修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{FDD279D5-9A0A-41C1-A6F0-7889CA1E0655}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「レコード構成」は「Record structure」
-としてください。他のセルも同様に
-configurationをstructureに置き換えてください。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="107">
   <si>
@@ -301,17 +205,6 @@
   </si>
   <si>
     <t>Input data definition, item definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Send empty request for mandatory items.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The following response is returned. 
-- Status code: 400
-- Failure code: FB1999901
-- Message of mandatory items
-</t>
   </si>
   <si>
     <t>1-2-1</t>
@@ -357,9 +250,6 @@
   </si>
   <si>
     <t>2-3-1</t>
-  </si>
-  <si>
-    <t>Only mandatory items</t>
   </si>
   <si>
     <t>(a) Data layout
@@ -484,6 +374,20 @@
     <t>Input data definition, item definition
 (Check at least one rule defined in the domain. 
 To make sure domain validation works.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send empty request for required items.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The following response is returned. 
+- Status code: 400
+- Failure code: FB1999901
+- Message of required items
+</t>
+  </si>
+  <si>
+    <t>Only required items</t>
   </si>
 </sst>
 </file>
@@ -495,7 +399,7 @@
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="VL Pゴシック"/>
@@ -590,21 +494,6 @@
       <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2557,9 +2446,9 @@
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.58203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="6.58203125" style="1"/>
+    <col min="1" max="16384" width="6.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1">
@@ -2645,18 +2534,18 @@
       <c r="G31" s="8"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="6:11" ht="19">
+    <row r="32" spans="6:11" ht="18.75">
       <c r="F32" s="5"/>
       <c r="G32" s="8"/>
       <c r="H32" s="5"/>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="6:10" ht="19">
+    <row r="33" spans="6:10" ht="18.75">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="6:10" ht="19">
+    <row r="34" spans="6:10" ht="18.75">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="J34" s="9"/>
@@ -3163,9 +3052,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="11"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="3.58203125" style="22"/>
+    <col min="1" max="16384" width="3.625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
@@ -4375,7 +4264,7 @@
       <c r="AH33" s="162"/>
       <c r="AI33" s="163"/>
     </row>
-    <row r="34" spans="1:35" ht="14">
+    <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
@@ -4567,29 +4456,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="2" width="8.58203125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.58203125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="29" customWidth="1"/>
     <col min="6" max="6" width="6" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.58203125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="27.625" style="29" customWidth="1"/>
     <col min="8" max="8" width="23.5" style="28" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="30.58203125" style="28" customWidth="1"/>
-    <col min="12" max="12" width="20.58203125" style="28" customWidth="1"/>
-    <col min="13" max="16" width="8.58203125" style="28" customWidth="1"/>
+    <col min="10" max="11" width="30.625" style="28" customWidth="1"/>
+    <col min="12" max="12" width="20.625" style="28" customWidth="1"/>
+    <col min="13" max="16" width="8.625" style="28" customWidth="1"/>
     <col min="17" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
@@ -4600,7 +4487,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -4615,7 +4502,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J6" s="28" t="s">
         <v>25</v>
@@ -4626,7 +4513,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J7" s="28" t="s">
         <v>27</v>
@@ -4635,7 +4522,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="12" thickBot="1">
+    <row r="8" spans="1:18" ht="12.75" thickBot="1">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -4656,7 +4543,7 @@
       <c r="R8" s="30"/>
     </row>
     <row r="9" spans="1:18" ht="21.75" customHeight="1" thickTop="1"/>
-    <row r="10" spans="1:18" s="32" customFormat="1" ht="21">
+    <row r="10" spans="1:18" s="32" customFormat="1" ht="33.75">
       <c r="A10" s="117" t="s">
         <v>29</v>
       </c>
@@ -4712,18 +4599,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="32" customFormat="1" ht="69">
+    <row r="11" spans="1:18" s="32" customFormat="1" ht="72">
       <c r="A11" s="33" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C11" s="35" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E11" s="34" t="s">
         <v>49</v>
@@ -4734,7 +4621,7 @@
         <v>50</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J11" s="40" t="s">
         <v>51</v>
@@ -4756,7 +4643,7 @@
       <c r="Q11" s="46"/>
       <c r="R11" s="44"/>
     </row>
-    <row r="12" spans="1:18" s="32" customFormat="1" ht="57.5">
+    <row r="12" spans="1:18" s="32" customFormat="1" ht="60">
       <c r="A12" s="33" t="s">
         <v>55</v>
       </c>
@@ -4764,7 +4651,7 @@
       <c r="C12" s="48"/>
       <c r="D12" s="49"/>
       <c r="E12" s="50" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
@@ -4775,10 +4662,10 @@
         <v>56</v>
       </c>
       <c r="J12" s="40" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="K12" s="41" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="L12" s="42"/>
       <c r="M12" s="43"/>
@@ -4794,15 +4681,15 @@
       <c r="Q12" s="46"/>
       <c r="R12" s="44"/>
     </row>
-    <row r="13" spans="1:18" s="62" customFormat="1" ht="92">
+    <row r="13" spans="1:18" s="62" customFormat="1" ht="96">
       <c r="A13" s="52" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
       <c r="D13" s="49"/>
       <c r="E13" s="53" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F13" s="54"/>
       <c r="G13" s="54"/>
@@ -4810,7 +4697,7 @@
         <v>50</v>
       </c>
       <c r="I13" s="55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J13" s="56"/>
       <c r="K13" s="56"/>
@@ -4822,15 +4709,15 @@
       <c r="Q13" s="61"/>
       <c r="R13" s="59"/>
     </row>
-    <row r="14" spans="1:18" s="62" customFormat="1" ht="34.5">
+    <row r="14" spans="1:18" s="62" customFormat="1" ht="36">
       <c r="A14" s="52" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14" s="63"/>
       <c r="C14" s="48"/>
       <c r="D14" s="49"/>
       <c r="E14" s="64" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F14" s="65"/>
       <c r="G14" s="65"/>
@@ -4838,7 +4725,7 @@
         <v>50</v>
       </c>
       <c r="I14" s="55" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J14" s="56"/>
       <c r="K14" s="56"/>
@@ -4852,13 +4739,13 @@
     </row>
     <row r="15" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A15" s="66" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B15" s="67"/>
       <c r="C15" s="67"/>
       <c r="D15" s="68"/>
       <c r="E15" s="69" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F15" s="70"/>
       <c r="G15" s="70"/>
@@ -4866,7 +4753,7 @@
         <v>50</v>
       </c>
       <c r="I15" s="55" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J15" s="71"/>
       <c r="K15" s="71"/>
@@ -4878,31 +4765,31 @@
       <c r="Q15" s="73"/>
       <c r="R15" s="73"/>
     </row>
-    <row r="16" spans="1:18" s="79" customFormat="1" ht="69">
+    <row r="16" spans="1:18" s="79" customFormat="1" ht="72">
       <c r="A16" s="52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
       <c r="D16" s="75" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E16" s="76" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F16" s="77"/>
       <c r="G16" s="77"/>
       <c r="H16" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" s="41" t="s">
         <v>66</v>
-      </c>
-      <c r="I16" s="77" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="K16" s="41" t="s">
-        <v>68</v>
       </c>
       <c r="L16" s="78"/>
       <c r="M16" s="78"/>
@@ -4918,23 +4805,23 @@
       <c r="Q16" s="78"/>
       <c r="R16" s="78"/>
     </row>
-    <row r="17" spans="1:18" s="79" customFormat="1" ht="57.5">
+    <row r="17" spans="1:18" s="79" customFormat="1" ht="48">
       <c r="A17" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B17" s="48"/>
       <c r="C17" s="48"/>
       <c r="D17" s="80"/>
       <c r="E17" s="81" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F17" s="82"/>
       <c r="G17" s="82"/>
       <c r="H17" s="82" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I17" s="82" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J17" s="83"/>
       <c r="K17" s="84"/>
@@ -4946,23 +4833,23 @@
       <c r="Q17" s="60"/>
       <c r="R17" s="60"/>
     </row>
-    <row r="18" spans="1:18" s="79" customFormat="1" ht="57.5">
+    <row r="18" spans="1:18" s="79" customFormat="1" ht="48">
       <c r="A18" s="52" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B18" s="63"/>
       <c r="C18" s="48"/>
       <c r="D18" s="80"/>
       <c r="E18" s="81" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="F18" s="82"/>
       <c r="G18" s="82"/>
       <c r="H18" s="82" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I18" s="82" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J18" s="83"/>
       <c r="K18" s="84"/>
@@ -4974,23 +4861,23 @@
       <c r="Q18" s="60"/>
       <c r="R18" s="60"/>
     </row>
-    <row r="19" spans="1:18" s="79" customFormat="1" ht="57.5">
+    <row r="19" spans="1:18" s="79" customFormat="1" ht="48">
       <c r="A19" s="52" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B19" s="48"/>
       <c r="C19" s="48"/>
       <c r="D19" s="80"/>
       <c r="E19" s="81" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F19" s="82"/>
       <c r="G19" s="82"/>
       <c r="H19" s="82" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I19" s="82" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J19" s="83"/>
       <c r="K19" s="84"/>
@@ -5002,15 +4889,15 @@
       <c r="Q19" s="60"/>
       <c r="R19" s="60"/>
     </row>
-    <row r="20" spans="1:18" s="79" customFormat="1" ht="23">
+    <row r="20" spans="1:18" s="79" customFormat="1" ht="24">
       <c r="A20" s="52" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B20" s="85"/>
       <c r="C20" s="86"/>
       <c r="D20" s="87"/>
       <c r="E20" s="88" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F20" s="89"/>
       <c r="G20" s="89"/>
@@ -5030,25 +4917,25 @@
       <c r="Q20" s="91"/>
       <c r="R20" s="91"/>
     </row>
-    <row r="21" spans="1:18" ht="57.5">
+    <row r="21" spans="1:18" ht="48">
       <c r="A21" s="52" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B21" s="85"/>
       <c r="C21" s="92" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D21" s="88" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E21" s="93"/>
       <c r="F21" s="82"/>
       <c r="G21" s="82"/>
       <c r="H21" s="82" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I21" s="82" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J21" s="60"/>
       <c r="K21" s="60"/>
@@ -5060,23 +4947,23 @@
       <c r="Q21" s="60"/>
       <c r="R21" s="95"/>
     </row>
-    <row r="22" spans="1:18" s="79" customFormat="1" ht="57.5">
+    <row r="22" spans="1:18" s="79" customFormat="1" ht="48">
       <c r="A22" s="52" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B22" s="48"/>
       <c r="C22" s="96"/>
       <c r="D22" s="97" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E22" s="93"/>
       <c r="F22" s="82"/>
       <c r="G22" s="82"/>
       <c r="H22" s="82" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I22" s="82" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J22" s="91"/>
       <c r="K22" s="91"/>
@@ -5088,23 +4975,23 @@
       <c r="Q22" s="60"/>
       <c r="R22" s="95"/>
     </row>
-    <row r="23" spans="1:18" ht="57.5">
+    <row r="23" spans="1:18" ht="60">
       <c r="A23" s="52" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B23" s="48"/>
       <c r="C23" s="96"/>
       <c r="D23" s="97" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E23" s="93"/>
       <c r="F23" s="82"/>
       <c r="G23" s="82"/>
       <c r="H23" s="82" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I23" s="98" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J23" s="99"/>
       <c r="K23" s="100"/>
@@ -5116,23 +5003,23 @@
       <c r="Q23" s="60"/>
       <c r="R23" s="95"/>
     </row>
-    <row r="24" spans="1:18" ht="57.5">
+    <row r="24" spans="1:18" ht="60">
       <c r="A24" s="52" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B24" s="48"/>
       <c r="C24" s="104"/>
       <c r="D24" s="105" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E24" s="93"/>
       <c r="F24" s="82"/>
       <c r="G24" s="82"/>
       <c r="H24" s="82" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I24" s="98" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J24" s="99"/>
       <c r="K24" s="100"/>
@@ -5144,29 +5031,29 @@
       <c r="Q24" s="60"/>
       <c r="R24" s="95"/>
     </row>
-    <row r="25" spans="1:18" s="79" customFormat="1" ht="69">
+    <row r="25" spans="1:18" s="79" customFormat="1" ht="72">
       <c r="A25" s="52" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B25" s="48"/>
       <c r="C25" s="106" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D25" s="107" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E25" s="108"/>
       <c r="F25" s="82" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G25" s="82" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H25" s="82" t="s">
         <v>50</v>
       </c>
       <c r="I25" s="82" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J25" s="60"/>
       <c r="K25" s="60"/>
@@ -5178,16 +5065,16 @@
       <c r="Q25" s="60"/>
       <c r="R25" s="95"/>
     </row>
-    <row r="26" spans="1:18" s="79" customFormat="1" ht="69">
+    <row r="26" spans="1:18" s="79" customFormat="1" ht="72">
       <c r="A26" s="52" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B26" s="109"/>
       <c r="C26" s="110" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D26" s="76" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E26" s="111"/>
       <c r="F26" s="77"/>
@@ -5196,13 +5083,13 @@
         <v>50</v>
       </c>
       <c r="I26" s="77" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J26" s="78" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K26" s="78" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L26" s="78"/>
       <c r="M26" s="78"/>
@@ -5229,6 +5116,5 @@
     <ignoredError sqref="A11:A12 A13:A14" twoDigitTextYear="1"/>
     <ignoredError sqref="M13:M14 M16:M20 M25:M26 M22" numberStoredAsText="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>